--- a/DecorLibaryDesigner/Testdata/DT_02CreateProject.xlsx
+++ b/DecorLibaryDesigner/Testdata/DT_02CreateProject.xlsx
@@ -1,25 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\NuwanM\eclipseWorkPlace\DecorLibaryDesigner\Testdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NuwanMaduranga\git\DecoLibSelenium\DecorLibaryDesigner\Testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69FE6DC3-753F-4C74-B593-34F6D2FF81F0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5A372E08-4CBD-4858-B4C3-D9BDF36B6ADE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{335FE1CF-A67D-4350-AFDA-5632BEE56DD2}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
@@ -72,22 +69,22 @@
     <t>Galle State</t>
   </si>
   <si>
-    <t>this is nuwan home</t>
-  </si>
-  <si>
-    <t>Sumal Yohan</t>
-  </si>
-  <si>
-    <t>sumal2921@yopmail.com</t>
-  </si>
-  <si>
-    <t>TestAutoNM3</t>
+    <t>this is nuwan home05_21</t>
+  </si>
+  <si>
+    <t>Sohel Customer</t>
+  </si>
+  <si>
+    <t>sohelcus1@yopmail.com</t>
+  </si>
+  <si>
+    <t>ProjectJRCT6</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -443,7 +440,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92820C6D-B349-4115-854B-EBCBF644C3BE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -453,13 +450,13 @@
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="18" customWidth="1"/>
-    <col min="2" max="2" width="21.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.77734375" customWidth="1"/>
     <col min="6" max="6" width="9.77734375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.21875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.77734375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
@@ -499,7 +496,7 @@
         <v>14</v>
       </c>
       <c r="C2">
-        <v>7889887881</v>
+        <v>112222</v>
       </c>
       <c r="D2" t="s">
         <v>9</v>
@@ -522,7 +519,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{D637FBF2-4867-4E8F-B318-C1190284EAC0}"/>
+    <hyperlink ref="B2" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/DecorLibaryDesigner/Testdata/DT_02CreateProject.xlsx
+++ b/DecorLibaryDesigner/Testdata/DT_02CreateProject.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NuwanMaduranga\git\DecoLibSelenium\DecorLibaryDesigner\Testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5A372E08-4CBD-4858-B4C3-D9BDF36B6ADE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01ED6F6F-14E8-43A5-923C-4BC30444506A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -69,22 +69,22 @@
     <t>Galle State</t>
   </si>
   <si>
-    <t>this is nuwan home05_21</t>
-  </si>
-  <si>
-    <t>Sohel Customer</t>
-  </si>
-  <si>
-    <t>sohelcus1@yopmail.com</t>
-  </si>
-  <si>
-    <t>ProjectJRCT6</t>
+    <t>ProjectJRCT10</t>
+  </si>
+  <si>
+    <t>this is nuwan home05_30</t>
+  </si>
+  <si>
+    <t>Taraka Customer</t>
+  </si>
+  <si>
+    <t>tarakacus1@yopmail.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -440,11 +440,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -490,10 +490,10 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C2">
         <v>112222</v>
@@ -511,15 +511,15 @@
         <v>2211</v>
       </c>
       <c r="H2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="I2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/DecorLibaryDesigner/Testdata/DT_02CreateProject.xlsx
+++ b/DecorLibaryDesigner/Testdata/DT_02CreateProject.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NuwanMaduranga\git\DecoLibSelenium\DecorLibaryDesigner\Testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01ED6F6F-14E8-43A5-923C-4BC30444506A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E64115C2-866A-422A-8592-10D613D2013F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -69,16 +69,16 @@
     <t>Galle State</t>
   </si>
   <si>
-    <t>ProjectJRCT10</t>
-  </si>
-  <si>
     <t>this is nuwan home05_30</t>
   </si>
   <si>
-    <t>Taraka Customer</t>
-  </si>
-  <si>
-    <t>tarakacus1@yopmail.com</t>
+    <t>Marven Customer</t>
+  </si>
+  <si>
+    <t>ProjectJRCT12</t>
+  </si>
+  <si>
+    <t>marvencus2@yopmail.com</t>
   </si>
 </sst>
 </file>
@@ -444,7 +444,7 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -490,7 +490,7 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>15</v>
@@ -511,10 +511,10 @@
         <v>2211</v>
       </c>
       <c r="H2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" t="s">
         <v>12</v>
-      </c>
-      <c r="I2" t="s">
-        <v>13</v>
       </c>
     </row>
   </sheetData>
